--- a/Code/Results/Cases/Case_0_117/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_117/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9930475598797186</v>
+        <v>1.026334791081971</v>
       </c>
       <c r="D2">
-        <v>1.001496492180643</v>
+        <v>1.028979306322998</v>
       </c>
       <c r="E2">
-        <v>1.000438123150856</v>
+        <v>1.026571595137207</v>
       </c>
       <c r="F2">
-        <v>1.002026134766166</v>
+        <v>1.036558711088824</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04468725059364</v>
+        <v>1.032847858321424</v>
       </c>
       <c r="J2">
-        <v>1.01543822454626</v>
+        <v>1.031498808557979</v>
       </c>
       <c r="K2">
-        <v>1.012935017787365</v>
+        <v>1.031794549883021</v>
       </c>
       <c r="L2">
-        <v>1.011891357594257</v>
+        <v>1.029393852075565</v>
       </c>
       <c r="M2">
-        <v>1.01345731430085</v>
+        <v>1.039352107833707</v>
       </c>
       <c r="N2">
-        <v>1.016880263297495</v>
+        <v>1.032963655180705</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9981468613798409</v>
+        <v>1.027381719341492</v>
       </c>
       <c r="D3">
-        <v>1.005939828684931</v>
+        <v>1.029939222441116</v>
       </c>
       <c r="E3">
-        <v>1.004537585144033</v>
+        <v>1.027462349976322</v>
       </c>
       <c r="F3">
-        <v>1.007854129482776</v>
+        <v>1.03781154444677</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046216812577883</v>
+        <v>1.033059745142316</v>
       </c>
       <c r="J3">
-        <v>1.018688172622374</v>
+        <v>1.032184951014921</v>
       </c>
       <c r="K3">
-        <v>1.016497268280786</v>
+        <v>1.032562105923905</v>
       </c>
       <c r="L3">
-        <v>1.015112734093951</v>
+        <v>1.030091923992617</v>
       </c>
       <c r="M3">
-        <v>1.018387492012184</v>
+        <v>1.040413392444599</v>
       </c>
       <c r="N3">
-        <v>1.020134826672664</v>
+        <v>1.033650772038632</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.001368385874831</v>
+        <v>1.028058887736735</v>
       </c>
       <c r="D4">
-        <v>1.008751766883912</v>
+        <v>1.030560379069004</v>
       </c>
       <c r="E4">
-        <v>1.007133730344202</v>
+        <v>1.028038890305033</v>
       </c>
       <c r="F4">
-        <v>1.011535486500567</v>
+        <v>1.038621865134681</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047166453891759</v>
+        <v>1.033194749697788</v>
       </c>
       <c r="J4">
-        <v>1.020737152854784</v>
+        <v>1.032628117825693</v>
       </c>
       <c r="K4">
-        <v>1.018745700989927</v>
+        <v>1.033058178294346</v>
       </c>
       <c r="L4">
-        <v>1.017146813291837</v>
+        <v>1.030543155964259</v>
       </c>
       <c r="M4">
-        <v>1.021496653780322</v>
+        <v>1.041099217436501</v>
       </c>
       <c r="N4">
-        <v>1.022186716692025</v>
+        <v>1.034094568197106</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.002704784076015</v>
+        <v>1.028343506583088</v>
       </c>
       <c r="D5">
-        <v>1.009919367629355</v>
+        <v>1.030821519656093</v>
       </c>
       <c r="E5">
-        <v>1.008212153037771</v>
+        <v>1.028281306513553</v>
       </c>
       <c r="F5">
-        <v>1.013062551533137</v>
+        <v>1.038962442441235</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047556343062601</v>
+        <v>1.033251002594396</v>
       </c>
       <c r="J5">
-        <v>1.021586093644321</v>
+        <v>1.032814230483779</v>
       </c>
       <c r="K5">
-        <v>1.019677895546329</v>
+        <v>1.033266586415766</v>
       </c>
       <c r="L5">
-        <v>1.017990324960375</v>
+        <v>1.030732741951685</v>
       </c>
       <c r="M5">
-        <v>1.022785126130443</v>
+        <v>1.041387324541319</v>
       </c>
       <c r="N5">
-        <v>1.023036863074859</v>
+        <v>1.034280945156514</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.002928140944581</v>
+        <v>1.028391291674742</v>
       </c>
       <c r="D6">
-        <v>1.010114576966439</v>
+        <v>1.030865366679844</v>
       </c>
       <c r="E6">
-        <v>1.008392477510527</v>
+        <v>1.028322011521795</v>
       </c>
       <c r="F6">
-        <v>1.013317771147084</v>
+        <v>1.039019622129945</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047621266638811</v>
+        <v>1.033260418200577</v>
       </c>
       <c r="J6">
-        <v>1.021727917466154</v>
+        <v>1.032845468203012</v>
       </c>
       <c r="K6">
-        <v>1.01983366401838</v>
+        <v>1.033301570805248</v>
       </c>
       <c r="L6">
-        <v>1.018131285541084</v>
+        <v>1.030764567707025</v>
       </c>
       <c r="M6">
-        <v>1.023000395986049</v>
+        <v>1.041435686489544</v>
       </c>
       <c r="N6">
-        <v>1.023178888302786</v>
+        <v>1.034312227236892</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.0013863123784</v>
+        <v>1.028062691073626</v>
       </c>
       <c r="D7">
-        <v>1.008767424789132</v>
+        <v>1.03056386841748</v>
       </c>
       <c r="E7">
-        <v>1.007148190676721</v>
+        <v>1.028042129330685</v>
       </c>
       <c r="F7">
-        <v>1.011555970913652</v>
+        <v>1.038626416263893</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047171699980965</v>
+        <v>1.03319550332851</v>
       </c>
       <c r="J7">
-        <v>1.020748544768423</v>
+        <v>1.032630605437048</v>
       </c>
       <c r="K7">
-        <v>1.018758207644056</v>
+        <v>1.033060963606755</v>
       </c>
       <c r="L7">
-        <v>1.017158129408969</v>
+        <v>1.030545689661436</v>
       </c>
       <c r="M7">
-        <v>1.021513942586839</v>
+        <v>1.041103067976234</v>
       </c>
       <c r="N7">
-        <v>1.022198124783488</v>
+        <v>1.034097059341154</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.994787527751685</v>
+        <v>1.026688660396452</v>
       </c>
       <c r="D8">
-        <v>1.003011591517433</v>
+        <v>1.02930370890895</v>
       </c>
       <c r="E8">
-        <v>1.001835576210033</v>
+        <v>1.026872596152615</v>
       </c>
       <c r="F8">
-        <v>1.004014880045397</v>
+        <v>1.036982184522951</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04521263358827</v>
+        <v>1.032919901256673</v>
       </c>
       <c r="J8">
-        <v>1.016548020849436</v>
+        <v>1.031730862016554</v>
       </c>
       <c r="K8">
-        <v>1.014150922834089</v>
+        <v>1.032054070731334</v>
       </c>
       <c r="L8">
-        <v>1.012990740726948</v>
+        <v>1.029629865449779</v>
       </c>
       <c r="M8">
-        <v>1.015140740496761</v>
+        <v>1.039710960326064</v>
       </c>
       <c r="N8">
-        <v>1.01799163563873</v>
+        <v>1.033196038181801</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9825251541924196</v>
+        <v>1.024265396061721</v>
       </c>
       <c r="D9">
-        <v>0.9923565602261148</v>
+        <v>1.027083352812978</v>
       </c>
       <c r="E9">
-        <v>0.9920162261265391</v>
+        <v>1.024812981816964</v>
       </c>
       <c r="F9">
-        <v>0.9899952528360884</v>
+        <v>1.03408212312184</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041441046979845</v>
+        <v>1.032418176092984</v>
       </c>
       <c r="J9">
-        <v>1.008710452978168</v>
+        <v>1.030139168811194</v>
       </c>
       <c r="K9">
-        <v>1.005574876255319</v>
+        <v>1.030275294860715</v>
       </c>
       <c r="L9">
-        <v>1.005240176346772</v>
+        <v>1.028012490217303</v>
       </c>
       <c r="M9">
-        <v>1.00325276281581</v>
+        <v>1.037250969979556</v>
       </c>
       <c r="N9">
-        <v>1.010142937522103</v>
+        <v>1.03160208458952</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.973868216084263</v>
+        <v>1.022648474331617</v>
       </c>
       <c r="D10">
-        <v>0.984865533438533</v>
+        <v>1.025603252066035</v>
       </c>
       <c r="E10">
-        <v>0.9851239928533437</v>
+        <v>1.023440756536765</v>
       </c>
       <c r="F10">
-        <v>0.9800904332282028</v>
+        <v>1.032146831783656</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038692981195053</v>
+        <v>1.032072889908348</v>
       </c>
       <c r="J10">
-        <v>1.003158408484967</v>
+        <v>1.029073845297226</v>
       </c>
       <c r="K10">
-        <v>0.9995135297747653</v>
+        <v>1.029086412953975</v>
       </c>
       <c r="L10">
-        <v>0.9997671350902422</v>
+        <v>1.026931836242771</v>
       </c>
       <c r="M10">
-        <v>0.9948287126403247</v>
+        <v>1.035606253999995</v>
       </c>
       <c r="N10">
-        <v>1.004583008488894</v>
+        <v>1.030535248193968</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9699915677182044</v>
+        <v>1.021947985318461</v>
       </c>
       <c r="D11">
-        <v>0.9815192171289575</v>
+        <v>1.024962382946992</v>
       </c>
       <c r="E11">
-        <v>0.9820480715785467</v>
+        <v>1.022846770518303</v>
       </c>
       <c r="F11">
-        <v>0.9756524458152831</v>
+        <v>1.031308353060351</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03744291480945</v>
+        <v>1.031920815943293</v>
       </c>
       <c r="J11">
-        <v>1.00066830321422</v>
+        <v>1.028611551268247</v>
       </c>
       <c r="K11">
-        <v>0.9967982772241301</v>
+        <v>1.028570892949972</v>
       </c>
       <c r="L11">
-        <v>0.9973166660387096</v>
+        <v>1.02646333013844</v>
       </c>
       <c r="M11">
-        <v>0.9910486067459852</v>
+        <v>1.034892936918904</v>
       </c>
       <c r="N11">
-        <v>1.002089366983043</v>
+        <v>1.030072297654442</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9685310613177591</v>
+        <v>1.021687738833578</v>
       </c>
       <c r="D12">
-        <v>0.9802598227595613</v>
+        <v>1.024724339009861</v>
       </c>
       <c r="E12">
-        <v>0.9808908995048033</v>
+        <v>1.022626167155337</v>
       </c>
       <c r="F12">
-        <v>0.9739800021632966</v>
+        <v>1.030996829911168</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036969107280378</v>
+        <v>1.031863943866995</v>
       </c>
       <c r="J12">
-        <v>0.9997296476107711</v>
+        <v>1.028439683849827</v>
       </c>
       <c r="K12">
-        <v>0.9957752437203869</v>
+        <v>1.028379296459797</v>
       </c>
       <c r="L12">
-        <v>0.9963935910258854</v>
+        <v>1.026289219424889</v>
       </c>
       <c r="M12">
-        <v>0.9896232791810413</v>
+        <v>1.034627805710474</v>
       </c>
       <c r="N12">
-        <v>1.001149378380972</v>
+        <v>1.029900186164574</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9688452967494351</v>
+        <v>1.021743565031621</v>
       </c>
       <c r="D13">
-        <v>0.9805307273602395</v>
+        <v>1.02477540009335</v>
       </c>
       <c r="E13">
-        <v>0.9811397942980913</v>
+        <v>1.022673485991779</v>
       </c>
       <c r="F13">
-        <v>0.9743398588718192</v>
+        <v>1.031063656101791</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037071177005689</v>
+        <v>1.031876160544247</v>
       </c>
       <c r="J13">
-        <v>0.9999316267879528</v>
+        <v>1.02847655682498</v>
       </c>
       <c r="K13">
-        <v>0.9959953570274915</v>
+        <v>1.028420399512983</v>
       </c>
       <c r="L13">
-        <v>0.996592188560262</v>
+        <v>1.026326570689661</v>
       </c>
       <c r="M13">
-        <v>0.9899300001008997</v>
+        <v>1.034684685130703</v>
       </c>
       <c r="N13">
-        <v>1.001351644391752</v>
+        <v>1.029937111503582</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9698712688500513</v>
+        <v>1.021926474363087</v>
       </c>
       <c r="D14">
-        <v>0.9814154563309153</v>
+        <v>1.024942706093296</v>
       </c>
       <c r="E14">
-        <v>0.9819527233746991</v>
+        <v>1.022828534774165</v>
       </c>
       <c r="F14">
-        <v>0.9755146998403906</v>
+        <v>1.031282603997434</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037403945762087</v>
+        <v>1.031916122734385</v>
       </c>
       <c r="J14">
-        <v>1.000590998366325</v>
+        <v>1.028597347732561</v>
       </c>
       <c r="K14">
-        <v>0.9967140132673143</v>
+        <v>1.028555057757907</v>
       </c>
       <c r="L14">
-        <v>0.9972406313245382</v>
+        <v>1.026448939861976</v>
       </c>
       <c r="M14">
-        <v>0.9909312298971571</v>
+        <v>1.034871024638711</v>
       </c>
       <c r="N14">
-        <v>1.002011952353396</v>
+        <v>1.030058073948106</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9705006407908776</v>
+        <v>1.022039163699103</v>
       </c>
       <c r="D15">
-        <v>0.9819583593537938</v>
+        <v>1.025045789282771</v>
       </c>
       <c r="E15">
-        <v>0.9824516283621647</v>
+        <v>1.022924069352728</v>
       </c>
       <c r="F15">
-        <v>0.9762353314086388</v>
+        <v>1.031417495048514</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037607705850855</v>
+        <v>1.031940693737472</v>
       </c>
       <c r="J15">
-        <v>1.000995416034413</v>
+        <v>1.028671751001279</v>
       </c>
       <c r="K15">
-        <v>0.9971548573201472</v>
+        <v>1.028638010640558</v>
       </c>
       <c r="L15">
-        <v>0.9976384304188713</v>
+        <v>1.026524324055503</v>
       </c>
       <c r="M15">
-        <v>0.9915452658405021</v>
+        <v>1.034985811523792</v>
       </c>
       <c r="N15">
-        <v>1.00241694434096</v>
+        <v>1.030132582878</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9741226887904331</v>
+        <v>1.022694956003058</v>
       </c>
       <c r="D16">
-        <v>0.9850853711680297</v>
+        <v>1.025645784928368</v>
       </c>
       <c r="E16">
-        <v>0.9853261291523178</v>
+        <v>1.023480181570888</v>
       </c>
       <c r="F16">
-        <v>0.9803816948375512</v>
+        <v>1.032202468471935</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038774640105978</v>
+        <v>1.032082928561507</v>
       </c>
       <c r="J16">
-        <v>1.003321789737485</v>
+        <v>1.029104505094259</v>
       </c>
       <c r="K16">
-        <v>0.9996917514903843</v>
+        <v>1.029120610992119</v>
       </c>
       <c r="L16">
-        <v>0.9999280037002698</v>
+        <v>1.026962917303392</v>
       </c>
       <c r="M16">
-        <v>0.9950766846722867</v>
+        <v>1.035653570263697</v>
       </c>
       <c r="N16">
-        <v>1.00474662176153</v>
+        <v>1.030565951531429</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9763595187526459</v>
+        <v>1.02310622251664</v>
       </c>
       <c r="D17">
-        <v>0.9870187000541787</v>
+        <v>1.026022152664404</v>
       </c>
       <c r="E17">
-        <v>0.9871041184539704</v>
+        <v>1.023829068676737</v>
       </c>
       <c r="F17">
-        <v>0.982941606235184</v>
+        <v>1.032694730371736</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039490226746487</v>
+        <v>1.032171462580168</v>
       </c>
       <c r="J17">
-        <v>1.004757489762153</v>
+        <v>1.029375691849058</v>
       </c>
       <c r="K17">
-        <v>1.001258232369749</v>
+        <v>1.029423138791745</v>
       </c>
       <c r="L17">
-        <v>1.001342101567209</v>
+        <v>1.027237880978557</v>
       </c>
       <c r="M17">
-        <v>0.9972554911376251</v>
+        <v>1.036072130231454</v>
       </c>
       <c r="N17">
-        <v>1.006184360644911</v>
+        <v>1.030837523402526</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9776519538373994</v>
+        <v>1.023346073488265</v>
       </c>
       <c r="D18">
-        <v>0.9881365456821116</v>
+        <v>1.026241683956924</v>
       </c>
       <c r="E18">
-        <v>0.988132421049826</v>
+        <v>1.024032587593704</v>
       </c>
       <c r="F18">
-        <v>0.9844204833889362</v>
+        <v>1.032981811766679</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039901845993178</v>
+        <v>1.032222855706323</v>
       </c>
       <c r="J18">
-        <v>1.005586665522256</v>
+        <v>1.029533773845519</v>
       </c>
       <c r="K18">
-        <v>1.002163248918096</v>
+        <v>1.029599528082124</v>
       </c>
       <c r="L18">
-        <v>1.002159197718979</v>
+        <v>1.027398207094141</v>
       </c>
       <c r="M18">
-        <v>0.9985136699560816</v>
+        <v>1.036316158886284</v>
       </c>
       <c r="N18">
-        <v>1.0070147139297</v>
+        <v>1.030995829893554</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9780905970860431</v>
+        <v>1.023427850760998</v>
       </c>
       <c r="D19">
-        <v>0.9885160634129703</v>
+        <v>1.026316538862431</v>
       </c>
       <c r="E19">
-        <v>0.9884815840331282</v>
+        <v>1.024101985503935</v>
       </c>
       <c r="F19">
-        <v>0.9849223662524677</v>
+        <v>1.033079691252178</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040041231577012</v>
+        <v>1.032240337493217</v>
       </c>
       <c r="J19">
-        <v>1.005868017734216</v>
+        <v>1.029587659336841</v>
       </c>
       <c r="K19">
-        <v>1.002470387584775</v>
+        <v>1.02965966039767</v>
       </c>
       <c r="L19">
-        <v>1.002436518169562</v>
+        <v>1.027452864740412</v>
       </c>
       <c r="M19">
-        <v>0.9989405637734182</v>
+        <v>1.036399347691601</v>
       </c>
       <c r="N19">
-        <v>1.007296465694073</v>
+        <v>1.031049791908455</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9761208062056415</v>
+        <v>1.02306210101721</v>
       </c>
       <c r="D20">
-        <v>0.9868122961327418</v>
+        <v>1.025981771725849</v>
       </c>
       <c r="E20">
-        <v>0.9869142701502629</v>
+        <v>1.023791634430033</v>
       </c>
       <c r="F20">
-        <v>0.9826684394866919</v>
+        <v>1.032641920167072</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039414050998671</v>
+        <v>1.032161989293999</v>
       </c>
       <c r="J20">
-        <v>1.004604310946697</v>
+        <v>1.029346606075717</v>
       </c>
       <c r="K20">
-        <v>1.001091068050419</v>
+        <v>1.029390687670173</v>
       </c>
       <c r="L20">
-        <v>1.001191186320364</v>
+        <v>1.02720838572478</v>
       </c>
       <c r="M20">
-        <v>0.9970230468287502</v>
+        <v>1.036027234127349</v>
       </c>
       <c r="N20">
-        <v>1.006030964297967</v>
+        <v>1.030808396324051</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9695697238112423</v>
+        <v>1.021872613612912</v>
       </c>
       <c r="D21">
-        <v>0.9811553875488558</v>
+        <v>1.024893438554887</v>
       </c>
       <c r="E21">
-        <v>0.9817137475976492</v>
+        <v>1.022782875958518</v>
       </c>
       <c r="F21">
-        <v>0.9751694137081006</v>
+        <v>1.031218131380623</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037306219026704</v>
+        <v>1.031904365494358</v>
       </c>
       <c r="J21">
-        <v>1.000397215330118</v>
+        <v>1.028561781987122</v>
       </c>
       <c r="K21">
-        <v>0.9965027934909493</v>
+        <v>1.028515407283589</v>
       </c>
       <c r="L21">
-        <v>0.9970500425054084</v>
+        <v>1.026412907585135</v>
       </c>
       <c r="M21">
-        <v>0.9906369899737862</v>
+        <v>1.034816157099747</v>
       </c>
       <c r="N21">
-        <v>1.001817894123051</v>
+        <v>1.030022457695229</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9653311932169403</v>
+        <v>1.021124424663151</v>
       </c>
       <c r="D22">
-        <v>0.9775030817757291</v>
+        <v>1.024209179764084</v>
       </c>
       <c r="E22">
-        <v>0.9783587859075482</v>
+        <v>1.02214880007122</v>
       </c>
       <c r="F22">
-        <v>0.9703148639043329</v>
+        <v>1.030322504995983</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035925860402448</v>
+        <v>1.031740159485851</v>
       </c>
       <c r="J22">
-        <v>0.9976722237115654</v>
+        <v>1.028067459105764</v>
       </c>
       <c r="K22">
-        <v>0.9935337803555384</v>
+        <v>1.027964450618846</v>
       </c>
       <c r="L22">
-        <v>0.9943715054294096</v>
+        <v>1.025912257272852</v>
       </c>
       <c r="M22">
-        <v>0.986498253208734</v>
+        <v>1.034053700388877</v>
       </c>
       <c r="N22">
-        <v>0.9990890327038395</v>
+        <v>1.02952743281868</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9675899193293603</v>
+        <v>1.021521083566645</v>
       </c>
       <c r="D23">
-        <v>0.9794486560375313</v>
+        <v>1.024571916538945</v>
       </c>
       <c r="E23">
-        <v>0.9801457054419925</v>
+        <v>1.022484919541873</v>
       </c>
       <c r="F23">
-        <v>0.9729021503455932</v>
+        <v>1.030797335278973</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036662993983537</v>
+        <v>1.031827419362711</v>
       </c>
       <c r="J23">
-        <v>0.9991246436542418</v>
+        <v>1.028329591856397</v>
       </c>
       <c r="K23">
-        <v>0.9951159933845839</v>
+        <v>1.028256583285378</v>
       </c>
       <c r="L23">
-        <v>0.995798810781313</v>
+        <v>1.026177709086794</v>
       </c>
       <c r="M23">
-        <v>0.9887044659895057</v>
+        <v>1.034457988864861</v>
       </c>
       <c r="N23">
-        <v>1.000543515249429</v>
+        <v>1.029789937827887</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9762287079527893</v>
+        <v>1.0230820377278</v>
       </c>
       <c r="D24">
-        <v>0.9869055914917885</v>
+        <v>1.026000018126308</v>
       </c>
       <c r="E24">
-        <v>0.9870000814590579</v>
+        <v>1.023808549296011</v>
       </c>
       <c r="F24">
-        <v>0.9827919157826658</v>
+        <v>1.032665782968899</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039448489339485</v>
+        <v>1.032166270628167</v>
       </c>
       <c r="J24">
-        <v>1.004673551277139</v>
+        <v>1.029359748983143</v>
       </c>
       <c r="K24">
-        <v>1.001166629188362</v>
+        <v>1.029405351151433</v>
       </c>
       <c r="L24">
-        <v>1.001259402236092</v>
+        <v>1.027221713531811</v>
       </c>
       <c r="M24">
-        <v>0.9971281174998134</v>
+        <v>1.036047521084544</v>
       </c>
       <c r="N24">
-        <v>1.00610030295762</v>
+        <v>1.030821557895912</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9857758944768212</v>
+        <v>1.02489211420837</v>
       </c>
       <c r="D25">
-        <v>0.9951761057860484</v>
+        <v>1.027657343827511</v>
       </c>
       <c r="E25">
-        <v>0.9946127683522048</v>
+        <v>1.025345292115247</v>
       </c>
       <c r="F25">
-        <v>0.9937128528721011</v>
+        <v>1.034832189641107</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042455800333015</v>
+        <v>1.032549788680284</v>
       </c>
       <c r="J25">
-        <v>1.010791625337053</v>
+        <v>1.030551398544891</v>
       </c>
       <c r="K25">
-        <v>1.007849770927591</v>
+        <v>1.030735684989623</v>
       </c>
       <c r="L25">
-        <v>1.007295293809634</v>
+        <v>1.02843104417322</v>
       </c>
       <c r="M25">
-        <v>1.006409559110586</v>
+        <v>1.037887763587086</v>
       </c>
       <c r="N25">
-        <v>1.012227065384451</v>
+        <v>1.032014899736722</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_117/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_117/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026334791081971</v>
+        <v>0.9930475598797184</v>
       </c>
       <c r="D2">
-        <v>1.028979306322998</v>
+        <v>1.001496492180643</v>
       </c>
       <c r="E2">
-        <v>1.026571595137207</v>
+        <v>1.000438123150856</v>
       </c>
       <c r="F2">
-        <v>1.036558711088824</v>
+        <v>1.002026134766165</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032847858321424</v>
+        <v>1.04468725059364</v>
       </c>
       <c r="J2">
-        <v>1.031498808557979</v>
+        <v>1.01543822454626</v>
       </c>
       <c r="K2">
-        <v>1.031794549883021</v>
+        <v>1.012935017787365</v>
       </c>
       <c r="L2">
-        <v>1.029393852075565</v>
+        <v>1.011891357594257</v>
       </c>
       <c r="M2">
-        <v>1.039352107833707</v>
+        <v>1.013457314300849</v>
       </c>
       <c r="N2">
-        <v>1.032963655180705</v>
+        <v>1.016880263297495</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027381719341492</v>
+        <v>0.9981468613798407</v>
       </c>
       <c r="D3">
-        <v>1.029939222441116</v>
+        <v>1.005939828684931</v>
       </c>
       <c r="E3">
-        <v>1.027462349976322</v>
+        <v>1.004537585144032</v>
       </c>
       <c r="F3">
-        <v>1.03781154444677</v>
+        <v>1.007854129482776</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033059745142316</v>
+        <v>1.046216812577883</v>
       </c>
       <c r="J3">
-        <v>1.032184951014921</v>
+        <v>1.018688172622373</v>
       </c>
       <c r="K3">
-        <v>1.032562105923905</v>
+        <v>1.016497268280786</v>
       </c>
       <c r="L3">
-        <v>1.030091923992617</v>
+        <v>1.015112734093951</v>
       </c>
       <c r="M3">
-        <v>1.040413392444599</v>
+        <v>1.018387492012184</v>
       </c>
       <c r="N3">
-        <v>1.033650772038632</v>
+        <v>1.020134826672663</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028058887736735</v>
+        <v>1.00136838587483</v>
       </c>
       <c r="D4">
-        <v>1.030560379069004</v>
+        <v>1.008751766883912</v>
       </c>
       <c r="E4">
-        <v>1.028038890305033</v>
+        <v>1.007133730344201</v>
       </c>
       <c r="F4">
-        <v>1.038621865134681</v>
+        <v>1.011535486500566</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033194749697788</v>
+        <v>1.047166453891759</v>
       </c>
       <c r="J4">
-        <v>1.032628117825693</v>
+        <v>1.020737152854783</v>
       </c>
       <c r="K4">
-        <v>1.033058178294346</v>
+        <v>1.018745700989927</v>
       </c>
       <c r="L4">
-        <v>1.030543155964259</v>
+        <v>1.017146813291836</v>
       </c>
       <c r="M4">
-        <v>1.041099217436501</v>
+        <v>1.021496653780321</v>
       </c>
       <c r="N4">
-        <v>1.034094568197106</v>
+        <v>1.022186716692024</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028343506583088</v>
+        <v>1.002704784076015</v>
       </c>
       <c r="D5">
-        <v>1.030821519656093</v>
+        <v>1.009919367629354</v>
       </c>
       <c r="E5">
-        <v>1.028281306513553</v>
+        <v>1.00821215303777</v>
       </c>
       <c r="F5">
-        <v>1.038962442441235</v>
+        <v>1.013062551533136</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033251002594396</v>
+        <v>1.0475563430626</v>
       </c>
       <c r="J5">
-        <v>1.032814230483779</v>
+        <v>1.02158609364432</v>
       </c>
       <c r="K5">
-        <v>1.033266586415766</v>
+        <v>1.019677895546329</v>
       </c>
       <c r="L5">
-        <v>1.030732741951685</v>
+        <v>1.017990324960374</v>
       </c>
       <c r="M5">
-        <v>1.041387324541319</v>
+        <v>1.022785126130442</v>
       </c>
       <c r="N5">
-        <v>1.034280945156514</v>
+        <v>1.023036863074858</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028391291674742</v>
+        <v>1.002928140944581</v>
       </c>
       <c r="D6">
-        <v>1.030865366679844</v>
+        <v>1.010114576966439</v>
       </c>
       <c r="E6">
-        <v>1.028322011521795</v>
+        <v>1.008392477510527</v>
       </c>
       <c r="F6">
-        <v>1.039019622129945</v>
+        <v>1.013317771147084</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033260418200577</v>
+        <v>1.047621266638811</v>
       </c>
       <c r="J6">
-        <v>1.032845468203012</v>
+        <v>1.021727917466154</v>
       </c>
       <c r="K6">
-        <v>1.033301570805248</v>
+        <v>1.01983366401838</v>
       </c>
       <c r="L6">
-        <v>1.030764567707025</v>
+        <v>1.018131285541084</v>
       </c>
       <c r="M6">
-        <v>1.041435686489544</v>
+        <v>1.023000395986048</v>
       </c>
       <c r="N6">
-        <v>1.034312227236892</v>
+        <v>1.023178888302786</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028062691073626</v>
+        <v>1.001386312378399</v>
       </c>
       <c r="D7">
-        <v>1.03056386841748</v>
+        <v>1.00876742478913</v>
       </c>
       <c r="E7">
-        <v>1.028042129330685</v>
+        <v>1.007148190676719</v>
       </c>
       <c r="F7">
-        <v>1.038626416263893</v>
+        <v>1.01155597091365</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03319550332851</v>
+        <v>1.047171699980964</v>
       </c>
       <c r="J7">
-        <v>1.032630605437048</v>
+        <v>1.020748544768421</v>
       </c>
       <c r="K7">
-        <v>1.033060963606755</v>
+        <v>1.018758207644055</v>
       </c>
       <c r="L7">
-        <v>1.030545689661436</v>
+        <v>1.017158129408967</v>
       </c>
       <c r="M7">
-        <v>1.041103067976234</v>
+        <v>1.021513942586838</v>
       </c>
       <c r="N7">
-        <v>1.034097059341154</v>
+        <v>1.022198124783487</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026688660396452</v>
+        <v>0.9947875277516848</v>
       </c>
       <c r="D8">
-        <v>1.02930370890895</v>
+        <v>1.003011591517433</v>
       </c>
       <c r="E8">
-        <v>1.026872596152615</v>
+        <v>1.001835576210033</v>
       </c>
       <c r="F8">
-        <v>1.036982184522951</v>
+        <v>1.004014880045397</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032919901256673</v>
+        <v>1.04521263358827</v>
       </c>
       <c r="J8">
-        <v>1.031730862016554</v>
+        <v>1.016548020849436</v>
       </c>
       <c r="K8">
-        <v>1.032054070731334</v>
+        <v>1.014150922834089</v>
       </c>
       <c r="L8">
-        <v>1.029629865449779</v>
+        <v>1.012990740726948</v>
       </c>
       <c r="M8">
-        <v>1.039710960326064</v>
+        <v>1.01514074049676</v>
       </c>
       <c r="N8">
-        <v>1.033196038181801</v>
+        <v>1.01799163563873</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024265396061721</v>
+        <v>0.9825251541924195</v>
       </c>
       <c r="D9">
-        <v>1.027083352812978</v>
+        <v>0.9923565602261147</v>
       </c>
       <c r="E9">
-        <v>1.024812981816964</v>
+        <v>0.9920162261265389</v>
       </c>
       <c r="F9">
-        <v>1.03408212312184</v>
+        <v>0.989995252836088</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032418176092984</v>
+        <v>1.041441046979845</v>
       </c>
       <c r="J9">
-        <v>1.030139168811194</v>
+        <v>1.008710452978168</v>
       </c>
       <c r="K9">
-        <v>1.030275294860715</v>
+        <v>1.005574876255319</v>
       </c>
       <c r="L9">
-        <v>1.028012490217303</v>
+        <v>1.005240176346772</v>
       </c>
       <c r="M9">
-        <v>1.037250969979556</v>
+        <v>1.003252762815809</v>
       </c>
       <c r="N9">
-        <v>1.03160208458952</v>
+        <v>1.010142937522103</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022648474331617</v>
+        <v>0.9738682160842616</v>
       </c>
       <c r="D10">
-        <v>1.025603252066035</v>
+        <v>0.9848655334385311</v>
       </c>
       <c r="E10">
-        <v>1.023440756536765</v>
+        <v>0.9851239928533426</v>
       </c>
       <c r="F10">
-        <v>1.032146831783656</v>
+        <v>0.980090433228201</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032072889908348</v>
+        <v>1.038692981195053</v>
       </c>
       <c r="J10">
-        <v>1.029073845297226</v>
+        <v>1.003158408484966</v>
       </c>
       <c r="K10">
-        <v>1.029086412953975</v>
+        <v>0.9995135297747635</v>
       </c>
       <c r="L10">
-        <v>1.026931836242771</v>
+        <v>0.9997671350902411</v>
       </c>
       <c r="M10">
-        <v>1.035606253999995</v>
+        <v>0.9948287126403229</v>
       </c>
       <c r="N10">
-        <v>1.030535248193968</v>
+        <v>1.004583008488892</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.021947985318461</v>
+        <v>0.9699915677182042</v>
       </c>
       <c r="D11">
-        <v>1.024962382946992</v>
+        <v>0.9815192171289571</v>
       </c>
       <c r="E11">
-        <v>1.022846770518303</v>
+        <v>0.9820480715785463</v>
       </c>
       <c r="F11">
-        <v>1.031308353060351</v>
+        <v>0.9756524458152825</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031920815943293</v>
+        <v>1.03744291480945</v>
       </c>
       <c r="J11">
-        <v>1.028611551268247</v>
+        <v>1.000668303214219</v>
       </c>
       <c r="K11">
-        <v>1.028570892949972</v>
+        <v>0.9967982772241297</v>
       </c>
       <c r="L11">
-        <v>1.02646333013844</v>
+        <v>0.9973166660387095</v>
       </c>
       <c r="M11">
-        <v>1.034892936918904</v>
+        <v>0.9910486067459849</v>
       </c>
       <c r="N11">
-        <v>1.030072297654442</v>
+        <v>1.002089366983042</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.021687738833578</v>
+        <v>0.9685310613177599</v>
       </c>
       <c r="D12">
-        <v>1.024724339009861</v>
+        <v>0.9802598227595621</v>
       </c>
       <c r="E12">
-        <v>1.022626167155337</v>
+        <v>0.9808908995048041</v>
       </c>
       <c r="F12">
-        <v>1.030996829911168</v>
+        <v>0.9739800021632974</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031863943866995</v>
+        <v>1.036969107280378</v>
       </c>
       <c r="J12">
-        <v>1.028439683849827</v>
+        <v>0.9997296476107721</v>
       </c>
       <c r="K12">
-        <v>1.028379296459797</v>
+        <v>0.9957752437203879</v>
       </c>
       <c r="L12">
-        <v>1.026289219424889</v>
+        <v>0.9963935910258861</v>
       </c>
       <c r="M12">
-        <v>1.034627805710474</v>
+        <v>0.9896232791810419</v>
       </c>
       <c r="N12">
-        <v>1.029900186164574</v>
+        <v>1.001149378380973</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.021743565031621</v>
+        <v>0.968845296749435</v>
       </c>
       <c r="D13">
-        <v>1.02477540009335</v>
+        <v>0.9805307273602394</v>
       </c>
       <c r="E13">
-        <v>1.022673485991779</v>
+        <v>0.9811397942980911</v>
       </c>
       <c r="F13">
-        <v>1.031063656101791</v>
+        <v>0.9743398588718193</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031876160544247</v>
+        <v>1.037071177005689</v>
       </c>
       <c r="J13">
-        <v>1.02847655682498</v>
+        <v>0.9999316267879528</v>
       </c>
       <c r="K13">
-        <v>1.028420399512983</v>
+        <v>0.9959953570274914</v>
       </c>
       <c r="L13">
-        <v>1.026326570689661</v>
+        <v>0.9965921885602618</v>
       </c>
       <c r="M13">
-        <v>1.034684685130703</v>
+        <v>0.9899300001008998</v>
       </c>
       <c r="N13">
-        <v>1.029937111503582</v>
+        <v>1.001351644391752</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021926474363087</v>
+        <v>0.9698712688500515</v>
       </c>
       <c r="D14">
-        <v>1.024942706093296</v>
+        <v>0.9814154563309154</v>
       </c>
       <c r="E14">
-        <v>1.022828534774165</v>
+        <v>0.9819527233746991</v>
       </c>
       <c r="F14">
-        <v>1.031282603997434</v>
+        <v>0.9755146998403907</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031916122734385</v>
+        <v>1.037403945762087</v>
       </c>
       <c r="J14">
-        <v>1.028597347732561</v>
+        <v>1.000590998366325</v>
       </c>
       <c r="K14">
-        <v>1.028555057757907</v>
+        <v>0.9967140132673146</v>
       </c>
       <c r="L14">
-        <v>1.026448939861976</v>
+        <v>0.9972406313245383</v>
       </c>
       <c r="M14">
-        <v>1.034871024638711</v>
+        <v>0.9909312298971571</v>
       </c>
       <c r="N14">
-        <v>1.030058073948106</v>
+        <v>1.002011952353397</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022039163699103</v>
+        <v>0.9705006407908773</v>
       </c>
       <c r="D15">
-        <v>1.025045789282771</v>
+        <v>0.9819583593537937</v>
       </c>
       <c r="E15">
-        <v>1.022924069352728</v>
+        <v>0.982451628362164</v>
       </c>
       <c r="F15">
-        <v>1.031417495048514</v>
+        <v>0.9762353314086384</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031940693737472</v>
+        <v>1.037607705850854</v>
       </c>
       <c r="J15">
-        <v>1.028671751001279</v>
+        <v>1.000995416034412</v>
       </c>
       <c r="K15">
-        <v>1.028638010640558</v>
+        <v>0.9971548573201471</v>
       </c>
       <c r="L15">
-        <v>1.026524324055503</v>
+        <v>0.9976384304188709</v>
       </c>
       <c r="M15">
-        <v>1.034985811523792</v>
+        <v>0.9915452658405016</v>
       </c>
       <c r="N15">
-        <v>1.030132582878</v>
+        <v>1.00241694434096</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.022694956003058</v>
+        <v>0.9741226887904322</v>
       </c>
       <c r="D16">
-        <v>1.025645784928368</v>
+        <v>0.9850853711680291</v>
       </c>
       <c r="E16">
-        <v>1.023480181570888</v>
+        <v>0.9853261291523167</v>
       </c>
       <c r="F16">
-        <v>1.032202468471935</v>
+        <v>0.9803816948375509</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032082928561507</v>
+        <v>1.038774640105977</v>
       </c>
       <c r="J16">
-        <v>1.029104505094259</v>
+        <v>1.003321789737484</v>
       </c>
       <c r="K16">
-        <v>1.029120610992119</v>
+        <v>0.9996917514903836</v>
       </c>
       <c r="L16">
-        <v>1.026962917303392</v>
+        <v>0.9999280037002689</v>
       </c>
       <c r="M16">
-        <v>1.035653570263697</v>
+        <v>0.9950766846722859</v>
       </c>
       <c r="N16">
-        <v>1.030565951531429</v>
+        <v>1.004746621761529</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02310622251664</v>
+        <v>0.976359518752646</v>
       </c>
       <c r="D17">
-        <v>1.026022152664404</v>
+        <v>0.987018700054179</v>
       </c>
       <c r="E17">
-        <v>1.023829068676737</v>
+        <v>0.9871041184539702</v>
       </c>
       <c r="F17">
-        <v>1.032694730371736</v>
+        <v>0.9829416062351842</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032171462580168</v>
+        <v>1.039490226746487</v>
       </c>
       <c r="J17">
-        <v>1.029375691849058</v>
+        <v>1.004757489762154</v>
       </c>
       <c r="K17">
-        <v>1.029423138791745</v>
+        <v>1.001258232369749</v>
       </c>
       <c r="L17">
-        <v>1.027237880978557</v>
+        <v>1.001342101567209</v>
       </c>
       <c r="M17">
-        <v>1.036072130231454</v>
+        <v>0.9972554911376256</v>
       </c>
       <c r="N17">
-        <v>1.030837523402526</v>
+        <v>1.006184360644911</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023346073488265</v>
+        <v>0.9776519538373994</v>
       </c>
       <c r="D18">
-        <v>1.026241683956924</v>
+        <v>0.9881365456821117</v>
       </c>
       <c r="E18">
-        <v>1.024032587593704</v>
+        <v>0.988132421049826</v>
       </c>
       <c r="F18">
-        <v>1.032981811766679</v>
+        <v>0.9844204833889361</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032222855706323</v>
+        <v>1.039901845993177</v>
       </c>
       <c r="J18">
-        <v>1.029533773845519</v>
+        <v>1.005586665522256</v>
       </c>
       <c r="K18">
-        <v>1.029599528082124</v>
+        <v>1.002163248918096</v>
       </c>
       <c r="L18">
-        <v>1.027398207094141</v>
+        <v>1.002159197718979</v>
       </c>
       <c r="M18">
-        <v>1.036316158886284</v>
+        <v>0.9985136699560814</v>
       </c>
       <c r="N18">
-        <v>1.030995829893554</v>
+        <v>1.0070147139297</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023427850760998</v>
+        <v>0.9780905970860422</v>
       </c>
       <c r="D19">
-        <v>1.026316538862431</v>
+        <v>0.9885160634129697</v>
       </c>
       <c r="E19">
-        <v>1.024101985503935</v>
+        <v>0.9884815840331276</v>
       </c>
       <c r="F19">
-        <v>1.033079691252178</v>
+        <v>0.9849223662524665</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032240337493217</v>
+        <v>1.040041231577012</v>
       </c>
       <c r="J19">
-        <v>1.029587659336841</v>
+        <v>1.005868017734215</v>
       </c>
       <c r="K19">
-        <v>1.02965966039767</v>
+        <v>1.002470387584775</v>
       </c>
       <c r="L19">
-        <v>1.027452864740412</v>
+        <v>1.002436518169561</v>
       </c>
       <c r="M19">
-        <v>1.036399347691601</v>
+        <v>0.9989405637734172</v>
       </c>
       <c r="N19">
-        <v>1.031049791908455</v>
+        <v>1.007296465694072</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02306210101721</v>
+        <v>0.9761208062056402</v>
       </c>
       <c r="D20">
-        <v>1.025981771725849</v>
+        <v>0.9868122961327404</v>
       </c>
       <c r="E20">
-        <v>1.023791634430033</v>
+        <v>0.986914270150262</v>
       </c>
       <c r="F20">
-        <v>1.032641920167072</v>
+        <v>0.9826684394866907</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032161989293999</v>
+        <v>1.03941405099867</v>
       </c>
       <c r="J20">
-        <v>1.029346606075717</v>
+        <v>1.004604310946696</v>
       </c>
       <c r="K20">
-        <v>1.029390687670173</v>
+        <v>1.001091068050418</v>
       </c>
       <c r="L20">
-        <v>1.02720838572478</v>
+        <v>1.001191186320363</v>
       </c>
       <c r="M20">
-        <v>1.036027234127349</v>
+        <v>0.9970230468287489</v>
       </c>
       <c r="N20">
-        <v>1.030808396324051</v>
+        <v>1.006030964297965</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.021872613612912</v>
+        <v>0.9695697238112414</v>
       </c>
       <c r="D21">
-        <v>1.024893438554887</v>
+        <v>0.9811553875488548</v>
       </c>
       <c r="E21">
-        <v>1.022782875958518</v>
+        <v>0.9817137475976487</v>
       </c>
       <c r="F21">
-        <v>1.031218131380623</v>
+        <v>0.9751694137080997</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031904365494358</v>
+        <v>1.037306219026704</v>
       </c>
       <c r="J21">
-        <v>1.028561781987122</v>
+        <v>1.000397215330117</v>
       </c>
       <c r="K21">
-        <v>1.028515407283589</v>
+        <v>0.9965027934909484</v>
       </c>
       <c r="L21">
-        <v>1.026412907585135</v>
+        <v>0.9970500425054079</v>
       </c>
       <c r="M21">
-        <v>1.034816157099747</v>
+        <v>0.9906369899737854</v>
       </c>
       <c r="N21">
-        <v>1.030022457695229</v>
+        <v>1.00181789412305</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021124424663151</v>
+        <v>0.9653311932169407</v>
       </c>
       <c r="D22">
-        <v>1.024209179764084</v>
+        <v>0.9775030817757298</v>
       </c>
       <c r="E22">
-        <v>1.02214880007122</v>
+        <v>0.9783587859075491</v>
       </c>
       <c r="F22">
-        <v>1.030322504995983</v>
+        <v>0.9703148639043336</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031740159485851</v>
+        <v>1.035925860402448</v>
       </c>
       <c r="J22">
-        <v>1.028067459105764</v>
+        <v>0.9976722237115662</v>
       </c>
       <c r="K22">
-        <v>1.027964450618846</v>
+        <v>0.9935337803555392</v>
       </c>
       <c r="L22">
-        <v>1.025912257272852</v>
+        <v>0.9943715054294102</v>
       </c>
       <c r="M22">
-        <v>1.034053700388877</v>
+        <v>0.9864982532087347</v>
       </c>
       <c r="N22">
-        <v>1.02952743281868</v>
+        <v>0.9990890327038401</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.021521083566645</v>
+        <v>0.9675899193293583</v>
       </c>
       <c r="D23">
-        <v>1.024571916538945</v>
+        <v>0.9794486560375292</v>
       </c>
       <c r="E23">
-        <v>1.022484919541873</v>
+        <v>0.9801457054419905</v>
       </c>
       <c r="F23">
-        <v>1.030797335278973</v>
+        <v>0.9729021503455916</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031827419362711</v>
+        <v>1.036662993983536</v>
       </c>
       <c r="J23">
-        <v>1.028329591856397</v>
+        <v>0.9991246436542398</v>
       </c>
       <c r="K23">
-        <v>1.028256583285378</v>
+        <v>0.9951159933845819</v>
       </c>
       <c r="L23">
-        <v>1.026177709086794</v>
+        <v>0.9957988107813112</v>
       </c>
       <c r="M23">
-        <v>1.034457988864861</v>
+        <v>0.9887044659895038</v>
       </c>
       <c r="N23">
-        <v>1.029789937827887</v>
+        <v>1.000543515249428</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.0230820377278</v>
+        <v>0.976228707952789</v>
       </c>
       <c r="D24">
-        <v>1.026000018126308</v>
+        <v>0.9869055914917882</v>
       </c>
       <c r="E24">
-        <v>1.023808549296011</v>
+        <v>0.9870000814590577</v>
       </c>
       <c r="F24">
-        <v>1.032665782968899</v>
+        <v>0.982791915782666</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032166270628167</v>
+        <v>1.039448489339484</v>
       </c>
       <c r="J24">
-        <v>1.029359748983143</v>
+        <v>1.004673551277139</v>
       </c>
       <c r="K24">
-        <v>1.029405351151433</v>
+        <v>1.001166629188361</v>
       </c>
       <c r="L24">
-        <v>1.027221713531811</v>
+        <v>1.001259402236091</v>
       </c>
       <c r="M24">
-        <v>1.036047521084544</v>
+        <v>0.9971281174998137</v>
       </c>
       <c r="N24">
-        <v>1.030821557895912</v>
+        <v>1.00610030295762</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02489211420837</v>
+        <v>0.9857758944768206</v>
       </c>
       <c r="D25">
-        <v>1.027657343827511</v>
+        <v>0.9951761057860478</v>
       </c>
       <c r="E25">
-        <v>1.025345292115247</v>
+        <v>0.9946127683522039</v>
       </c>
       <c r="F25">
-        <v>1.034832189641107</v>
+        <v>0.9937128528721004</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032549788680284</v>
+        <v>1.042455800333015</v>
       </c>
       <c r="J25">
-        <v>1.030551398544891</v>
+        <v>1.010791625337052</v>
       </c>
       <c r="K25">
-        <v>1.030735684989623</v>
+        <v>1.00784977092759</v>
       </c>
       <c r="L25">
-        <v>1.02843104417322</v>
+        <v>1.007295293809633</v>
       </c>
       <c r="M25">
-        <v>1.037887763587086</v>
+        <v>1.006409559110585</v>
       </c>
       <c r="N25">
-        <v>1.032014899736722</v>
+        <v>1.012227065384451</v>
       </c>
     </row>
   </sheetData>
